--- a/natmiOut/OldD7/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.6268623258293</v>
+        <v>8.032126666666667</v>
       </c>
       <c r="H2">
-        <v>7.6268623258293</v>
+        <v>24.09638</v>
       </c>
       <c r="I2">
-        <v>0.8788632091701113</v>
+        <v>0.8752332474713129</v>
       </c>
       <c r="J2">
-        <v>0.8788632091701113</v>
+        <v>0.8752332474713128</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>11.04454635711173</v>
+        <v>30.34890065027333</v>
       </c>
       <c r="R2">
-        <v>11.04454635711173</v>
+        <v>273.14010585246</v>
       </c>
       <c r="S2">
-        <v>0.2029487061065778</v>
+        <v>0.3722342082138391</v>
       </c>
       <c r="T2">
-        <v>0.2029487061065778</v>
+        <v>0.3722342082138391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.6268623258293</v>
+        <v>8.032126666666667</v>
       </c>
       <c r="H3">
-        <v>7.6268623258293</v>
+        <v>24.09638</v>
       </c>
       <c r="I3">
-        <v>0.8788632091701113</v>
+        <v>0.8752332474713129</v>
       </c>
       <c r="J3">
-        <v>0.8788632091701113</v>
+        <v>0.8752332474713128</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>32.1018197693986</v>
+        <v>34.80644447108889</v>
       </c>
       <c r="R3">
-        <v>32.1018197693986</v>
+        <v>313.2580002398</v>
       </c>
       <c r="S3">
-        <v>0.5898859559470175</v>
+        <v>0.4269067090019302</v>
       </c>
       <c r="T3">
-        <v>0.5898859559470175</v>
+        <v>0.4269067090019302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.6268623258293</v>
+        <v>8.032126666666667</v>
       </c>
       <c r="H4">
-        <v>7.6268623258293</v>
+        <v>24.09638</v>
       </c>
       <c r="I4">
-        <v>0.8788632091701113</v>
+        <v>0.8752332474713129</v>
       </c>
       <c r="J4">
-        <v>0.8788632091701113</v>
+        <v>0.8752332474713128</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>1.764127961826683</v>
+        <v>2.337231055475556</v>
       </c>
       <c r="R4">
-        <v>1.764127961826683</v>
+        <v>21.03507949928</v>
       </c>
       <c r="S4">
-        <v>0.03241667658252173</v>
+        <v>0.02866651946880005</v>
       </c>
       <c r="T4">
-        <v>0.03241667658252173</v>
+        <v>0.02866651946880004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.6268623258293</v>
+        <v>8.032126666666667</v>
       </c>
       <c r="H5">
-        <v>7.6268623258293</v>
+        <v>24.09638</v>
       </c>
       <c r="I5">
-        <v>0.8788632091701113</v>
+        <v>0.8752332474713129</v>
       </c>
       <c r="J5">
-        <v>0.8788632091701113</v>
+        <v>0.8752332474713128</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>2.917578538752658</v>
+        <v>3.866708615342222</v>
       </c>
       <c r="R5">
-        <v>2.917578538752658</v>
+        <v>34.80037753808</v>
       </c>
       <c r="S5">
-        <v>0.05361187053399423</v>
+        <v>0.04742581078674357</v>
       </c>
       <c r="T5">
-        <v>0.05361187053399423</v>
+        <v>0.04742581078674357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.05123711700795</v>
+        <v>0.05236733333333333</v>
       </c>
       <c r="H6">
-        <v>1.05123711700795</v>
+        <v>0.157102</v>
       </c>
       <c r="I6">
-        <v>0.1211367908298887</v>
+        <v>0.005706288398682217</v>
       </c>
       <c r="J6">
-        <v>0.1211367908298887</v>
+        <v>0.005706288398682216</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>1.522308463834548</v>
+        <v>0.1978667745926667</v>
       </c>
       <c r="R6">
-        <v>1.522308463834548</v>
+        <v>1.780800971334</v>
       </c>
       <c r="S6">
-        <v>0.02797313018034247</v>
+        <v>0.002426868209200326</v>
       </c>
       <c r="T6">
-        <v>0.02797313018034247</v>
+        <v>0.002426868209200325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -844,49 +844,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.05123711700795</v>
+        <v>0.05236733333333333</v>
       </c>
       <c r="H7">
-        <v>1.05123711700795</v>
+        <v>0.157102</v>
       </c>
       <c r="I7">
-        <v>0.1211367908298887</v>
+        <v>0.005706288398682217</v>
       </c>
       <c r="J7">
-        <v>0.1211367908298887</v>
+        <v>0.005706288398682216</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>4.424706127289637</v>
+        <v>0.2269287768244444</v>
       </c>
       <c r="R7">
-        <v>4.424706127289637</v>
+        <v>2.04235899142</v>
       </c>
       <c r="S7">
-        <v>0.08130604502891617</v>
+        <v>0.002783318398764513</v>
       </c>
       <c r="T7">
-        <v>0.08130604502891617</v>
+        <v>0.002783318398764513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.05123711700795</v>
+        <v>0.05236733333333333</v>
       </c>
       <c r="H8">
-        <v>1.05123711700795</v>
+        <v>0.157102</v>
       </c>
       <c r="I8">
-        <v>0.1211367908298887</v>
+        <v>0.005706288398682217</v>
       </c>
       <c r="J8">
-        <v>0.1211367908298887</v>
+        <v>0.005706288398682216</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>0.2431559287943675</v>
+        <v>0.01523812594577778</v>
       </c>
       <c r="R8">
-        <v>0.2431559287943675</v>
+        <v>0.137143133512</v>
       </c>
       <c r="S8">
-        <v>0.00446810394337148</v>
+        <v>0.0001868980959624402</v>
       </c>
       <c r="T8">
-        <v>0.00446810394337148</v>
+        <v>0.0001868980959624402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05236733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.157102</v>
+      </c>
+      <c r="I9">
+        <v>0.005706288398682217</v>
+      </c>
+      <c r="J9">
+        <v>0.005706288398682216</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.444216</v>
+      </c>
+      <c r="O9">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P9">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q9">
+        <v>0.02520991355911111</v>
+      </c>
+      <c r="R9">
+        <v>0.226889222032</v>
+      </c>
+      <c r="S9">
+        <v>0.0003092036947549378</v>
+      </c>
+      <c r="T9">
+        <v>0.0003092036947549378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.092633</v>
+      </c>
+      <c r="H10">
+        <v>3.277899</v>
+      </c>
+      <c r="I10">
+        <v>0.119060464130005</v>
+      </c>
+      <c r="J10">
+        <v>0.119060464130005</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.778439</v>
+      </c>
+      <c r="N10">
+        <v>11.335317</v>
+      </c>
+      <c r="O10">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="P10">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="Q10">
+        <v>4.128447139887</v>
+      </c>
+      <c r="R10">
+        <v>37.156024258983</v>
+      </c>
+      <c r="S10">
+        <v>0.05063607640939988</v>
+      </c>
+      <c r="T10">
+        <v>0.05063607640939987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.092633</v>
+      </c>
+      <c r="H11">
+        <v>3.277899</v>
+      </c>
+      <c r="I11">
+        <v>0.119060464130005</v>
+      </c>
+      <c r="J11">
+        <v>0.119060464130005</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.333403333333333</v>
+      </c>
+      <c r="N11">
+        <v>13.00021</v>
+      </c>
+      <c r="O11">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="P11">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="Q11">
+        <v>4.734819484309999</v>
+      </c>
+      <c r="R11">
+        <v>42.61337535879</v>
+      </c>
+      <c r="S11">
+        <v>0.05807333194989114</v>
+      </c>
+      <c r="T11">
+        <v>0.05807333194989114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.05123711700795</v>
-      </c>
-      <c r="H9">
-        <v>1.05123711700795</v>
-      </c>
-      <c r="I9">
-        <v>0.1211367908298887</v>
-      </c>
-      <c r="J9">
-        <v>0.1211367908298887</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="N9">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="O9">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="P9">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="Q9">
-        <v>0.4021400571681509</v>
-      </c>
-      <c r="R9">
-        <v>0.4021400571681509</v>
-      </c>
-      <c r="S9">
-        <v>0.007389511677258634</v>
-      </c>
-      <c r="T9">
-        <v>0.007389511677258634</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.092633</v>
+      </c>
+      <c r="H12">
+        <v>3.277899</v>
+      </c>
+      <c r="I12">
+        <v>0.119060464130005</v>
+      </c>
+      <c r="J12">
+        <v>0.119060464130005</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2909853333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.8729560000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="P12">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="Q12">
+        <v>0.317940177716</v>
+      </c>
+      <c r="R12">
+        <v>2.861461599444</v>
+      </c>
+      <c r="S12">
+        <v>0.00389958805016605</v>
+      </c>
+      <c r="T12">
+        <v>0.00389958805016605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.092633</v>
+      </c>
+      <c r="H13">
+        <v>3.277899</v>
+      </c>
+      <c r="I13">
+        <v>0.119060464130005</v>
+      </c>
+      <c r="J13">
+        <v>0.119060464130005</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.444216</v>
+      </c>
+      <c r="O13">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P13">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q13">
+        <v>0.5259993535759999</v>
+      </c>
+      <c r="R13">
+        <v>4.733994182184</v>
+      </c>
+      <c r="S13">
+        <v>0.006451467720547898</v>
+      </c>
+      <c r="T13">
+        <v>0.006451467720547898</v>
       </c>
     </row>
   </sheetData>
